--- a/public/名簿.xlsx
+++ b/public/名簿.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>名簿</t>
   </si>
@@ -23,7 +23,7 @@
     <t>ダウンロード日時</t>
   </si>
   <si>
-    <t>2023-02-26</t>
+    <t>2023-02-27</t>
   </si>
   <si>
     <t>社員番号</t>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>斉藤隆</t>
+  </si>
+  <si>
+    <t>大代真白</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -189,7 +198,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -203,27 +218,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -529,7 +537,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1158,14 +1166,30 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="A25" s="3">
+        <v>1021</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9">

--- a/public/名簿.xlsx
+++ b/public/名簿.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>名簿</t>
   </si>
@@ -23,7 +23,7 @@
     <t>ダウンロード日時</t>
   </si>
   <si>
-    <t>2023-02-27</t>
+    <t>2023-02-28</t>
   </si>
   <si>
     <t>社員番号</t>
@@ -153,15 +153,6 @@
   </si>
   <si>
     <t>斉藤隆</t>
-  </si>
-  <si>
-    <t>大代真白</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -537,7 +528,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1166,30 +1157,14 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="3">
-        <v>1021</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9">

--- a/public/名簿.xlsx
+++ b/public/名簿.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>名簿</t>
   </si>
@@ -153,6 +153,84 @@
   </si>
   <si>
     <t>斉藤隆</t>
+  </si>
+  <si>
+    <t>鎌田 龍</t>
+  </si>
+  <si>
+    <t>北川 仁</t>
+  </si>
+  <si>
+    <t>高木 健太郎</t>
+  </si>
+  <si>
+    <t>内藤 雄大</t>
+  </si>
+  <si>
+    <t>内山 勇人</t>
+  </si>
+  <si>
+    <t>矢野 賢一</t>
+  </si>
+  <si>
+    <t>武藤 修</t>
+  </si>
+  <si>
+    <t>竹田 輝</t>
+  </si>
+  <si>
+    <t>小西 孝志</t>
+  </si>
+  <si>
+    <t>神谷 陽人</t>
+  </si>
+  <si>
+    <t>坂口 功</t>
+  </si>
+  <si>
+    <t>小笠原 毅</t>
+  </si>
+  <si>
+    <t>坂本 葵</t>
+  </si>
+  <si>
+    <t>寺田 竜也</t>
+  </si>
+  <si>
+    <t>宮田 蓮</t>
+  </si>
+  <si>
+    <t>戸田 太陽</t>
+  </si>
+  <si>
+    <t>白石 佑真</t>
+  </si>
+  <si>
+    <t>富田 太陽</t>
+  </si>
+  <si>
+    <t>武藤 陽介</t>
+  </si>
+  <si>
+    <t>坂井 邦彦</t>
+  </si>
+  <si>
+    <t>山本 湊</t>
+  </si>
+  <si>
+    <t>西尾 太郎</t>
+  </si>
+  <si>
+    <t>篠原 翔真</t>
+  </si>
+  <si>
+    <t>福島 輝</t>
+  </si>
+  <si>
+    <t>北村 辰夫</t>
+  </si>
+  <si>
+    <t>小野寺 謙二</t>
   </si>
 </sst>
 </file>
@@ -189,13 +267,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -209,20 +281,27 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -528,7 +607,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1157,289 +1236,705 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="A25" s="3">
+        <v>1021</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="A26" s="3">
+        <v>1022</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="A27" s="3">
+        <v>1023</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="A28" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="A29" s="3">
+        <v>1025</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="A30" s="3">
+        <v>1026</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="A31" s="3">
+        <v>1027</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="A32" s="3">
+        <v>1028</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="A33" s="3">
+        <v>1029</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="A34" s="3">
+        <v>1030</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="A35" s="3">
+        <v>1031</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="A36" s="3">
+        <v>1032</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="A37" s="3">
+        <v>1033</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="A38" s="3">
+        <v>1034</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="A39" s="3">
+        <v>1035</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="A40" s="3">
+        <v>1036</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="A41" s="3">
+        <v>1037</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="A42" s="3">
+        <v>1038</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="A43" s="3">
+        <v>1039</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="A44" s="3">
+        <v>1040</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="A45" s="3">
+        <v>1041</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="A46" s="3">
+        <v>1042</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="A47" s="3">
+        <v>1043</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="A48" s="3">
+        <v>1044</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="A49" s="3">
+        <v>1045</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="A50" s="3">
+        <v>1046</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9">

--- a/public/名簿.xlsx
+++ b/public/名簿.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>名簿</t>
   </si>
@@ -23,7 +23,7 @@
     <t>ダウンロード日時</t>
   </si>
   <si>
-    <t>2023-02-28</t>
+    <t>2023-03-1</t>
   </si>
   <si>
     <t>社員番号</t>
@@ -153,84 +153,6 @@
   </si>
   <si>
     <t>斉藤隆</t>
-  </si>
-  <si>
-    <t>鎌田 龍</t>
-  </si>
-  <si>
-    <t>北川 仁</t>
-  </si>
-  <si>
-    <t>高木 健太郎</t>
-  </si>
-  <si>
-    <t>内藤 雄大</t>
-  </si>
-  <si>
-    <t>内山 勇人</t>
-  </si>
-  <si>
-    <t>矢野 賢一</t>
-  </si>
-  <si>
-    <t>武藤 修</t>
-  </si>
-  <si>
-    <t>竹田 輝</t>
-  </si>
-  <si>
-    <t>小西 孝志</t>
-  </si>
-  <si>
-    <t>神谷 陽人</t>
-  </si>
-  <si>
-    <t>坂口 功</t>
-  </si>
-  <si>
-    <t>小笠原 毅</t>
-  </si>
-  <si>
-    <t>坂本 葵</t>
-  </si>
-  <si>
-    <t>寺田 竜也</t>
-  </si>
-  <si>
-    <t>宮田 蓮</t>
-  </si>
-  <si>
-    <t>戸田 太陽</t>
-  </si>
-  <si>
-    <t>白石 佑真</t>
-  </si>
-  <si>
-    <t>富田 太陽</t>
-  </si>
-  <si>
-    <t>武藤 陽介</t>
-  </si>
-  <si>
-    <t>坂井 邦彦</t>
-  </si>
-  <si>
-    <t>山本 湊</t>
-  </si>
-  <si>
-    <t>西尾 太郎</t>
-  </si>
-  <si>
-    <t>篠原 翔真</t>
-  </si>
-  <si>
-    <t>福島 輝</t>
-  </si>
-  <si>
-    <t>北村 辰夫</t>
-  </si>
-  <si>
-    <t>小野寺 謙二</t>
   </si>
 </sst>
 </file>
@@ -267,7 +189,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -281,27 +209,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -607,7 +528,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1236,705 +1157,289 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="3">
-        <v>1021</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="3">
-        <v>1022</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="3">
-        <v>1023</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="3">
-        <v>1024</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="3">
-        <v>1025</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="3">
-        <v>1026</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="3">
-        <v>1027</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="3">
-        <v>1028</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="3">
-        <v>1029</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="3">
-        <v>1030</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="3">
-        <v>1031</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="3">
-        <v>1032</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="3">
-        <v>1033</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="3">
-        <v>1034</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="3">
-        <v>1035</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="3">
-        <v>1036</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="3">
-        <v>1037</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="3">
-        <v>1038</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="3">
-        <v>1039</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="3">
-        <v>1040</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="3">
-        <v>1041</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="3">
-        <v>1042</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="3">
-        <v>1043</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="3">
-        <v>1044</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="3">
-        <v>1045</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="3">
-        <v>1046</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9">
